--- a/RFS/Resources/login/user_login-生产.xlsx
+++ b/RFS/Resources/login/user_login-生产.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>货代版本</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>s</t>
     </r>
     <r>
@@ -42,7 +48,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ession</t>
@@ -53,6 +58,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>o</t>
     </r>
     <r>
@@ -60,23 +71,19 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>pen-url</t>
     </r>
   </si>
   <si>
     <t>公司名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>所在部门</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>服务类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>M1</t>
@@ -94,10 +101,25 @@
     <t>w01@800jit.com</t>
   </si>
   <si>
+    <t>3aS2KG</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>自动化</t>
+  </si>
+  <si>
+    <t>m2-自动化</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>M</t>
     </r>
     <r>
@@ -105,7 +127,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -113,18 +134,18 @@
   </si>
   <si>
     <t>cargotest.100jit.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>m3-自动化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -132,12 +153,10 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>10110110</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>hd</t>
@@ -180,107 +199,57 @@
   </si>
   <si>
     <t>GM1-生产演示公司-A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>自动化一级部门</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>国际运输</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>qqq123</t>
   </si>
   <si>
     <t>www.800jit.com</t>
-  </si>
-  <si>
-    <t>自动化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m2-自动化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3aS2KG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <color theme="3" tint="0.399975585192419"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="3" tint="0.39997558519241921"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="3" tint="0.39997558519241921"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="6"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="6"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <color theme="3" tint="0.399975585192419"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -288,18 +257,369 @@
       <sz val="11"/>
       <color rgb="FF172B4D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -307,39 +627,321 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -388,7 +990,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -423,7 +1025,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -626,481 +1228,481 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="19.6296296296296" customWidth="1"/>
     <col min="3" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="9" customWidth="1"/>
-    <col min="9" max="9" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1296296296296" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.1296296296296" customWidth="1"/>
     <col min="257" max="257" width="19" customWidth="1"/>
-    <col min="258" max="258" width="19.625" customWidth="1"/>
+    <col min="258" max="258" width="19.6296296296296" customWidth="1"/>
     <col min="259" max="260" width="26" customWidth="1"/>
     <col min="261" max="261" width="15.5" customWidth="1"/>
-    <col min="262" max="262" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="16.1296296296296" customWidth="1"/>
     <col min="264" max="264" width="16.5" customWidth="1"/>
-    <col min="265" max="265" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="16.1296296296296" customWidth="1"/>
     <col min="513" max="513" width="19" customWidth="1"/>
-    <col min="514" max="514" width="19.625" customWidth="1"/>
+    <col min="514" max="514" width="19.6296296296296" customWidth="1"/>
     <col min="515" max="516" width="26" customWidth="1"/>
     <col min="517" max="517" width="15.5" customWidth="1"/>
-    <col min="518" max="518" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="16.1296296296296" customWidth="1"/>
     <col min="520" max="520" width="16.5" customWidth="1"/>
-    <col min="521" max="521" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="16.1296296296296" customWidth="1"/>
     <col min="769" max="769" width="19" customWidth="1"/>
-    <col min="770" max="770" width="19.625" customWidth="1"/>
+    <col min="770" max="770" width="19.6296296296296" customWidth="1"/>
     <col min="771" max="772" width="26" customWidth="1"/>
     <col min="773" max="773" width="15.5" customWidth="1"/>
-    <col min="774" max="774" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="16.1296296296296" customWidth="1"/>
     <col min="776" max="776" width="16.5" customWidth="1"/>
-    <col min="777" max="777" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="16.1296296296296" customWidth="1"/>
     <col min="1025" max="1025" width="19" customWidth="1"/>
-    <col min="1026" max="1026" width="19.625" customWidth="1"/>
+    <col min="1026" max="1026" width="19.6296296296296" customWidth="1"/>
     <col min="1027" max="1028" width="26" customWidth="1"/>
     <col min="1029" max="1029" width="15.5" customWidth="1"/>
-    <col min="1030" max="1030" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="16.1296296296296" customWidth="1"/>
     <col min="1032" max="1032" width="16.5" customWidth="1"/>
-    <col min="1033" max="1033" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1033" width="16.1296296296296" customWidth="1"/>
     <col min="1281" max="1281" width="19" customWidth="1"/>
-    <col min="1282" max="1282" width="19.625" customWidth="1"/>
+    <col min="1282" max="1282" width="19.6296296296296" customWidth="1"/>
     <col min="1283" max="1284" width="26" customWidth="1"/>
     <col min="1285" max="1285" width="15.5" customWidth="1"/>
-    <col min="1286" max="1286" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="16.1296296296296" customWidth="1"/>
     <col min="1288" max="1288" width="16.5" customWidth="1"/>
-    <col min="1289" max="1289" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1289" width="16.1296296296296" customWidth="1"/>
     <col min="1537" max="1537" width="19" customWidth="1"/>
-    <col min="1538" max="1538" width="19.625" customWidth="1"/>
+    <col min="1538" max="1538" width="19.6296296296296" customWidth="1"/>
     <col min="1539" max="1540" width="26" customWidth="1"/>
     <col min="1541" max="1541" width="15.5" customWidth="1"/>
-    <col min="1542" max="1542" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="16.1296296296296" customWidth="1"/>
     <col min="1544" max="1544" width="16.5" customWidth="1"/>
-    <col min="1545" max="1545" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1545" width="16.1296296296296" customWidth="1"/>
     <col min="1793" max="1793" width="19" customWidth="1"/>
-    <col min="1794" max="1794" width="19.625" customWidth="1"/>
+    <col min="1794" max="1794" width="19.6296296296296" customWidth="1"/>
     <col min="1795" max="1796" width="26" customWidth="1"/>
     <col min="1797" max="1797" width="15.5" customWidth="1"/>
-    <col min="1798" max="1798" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="16.1296296296296" customWidth="1"/>
     <col min="1800" max="1800" width="16.5" customWidth="1"/>
-    <col min="1801" max="1801" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1801" width="16.1296296296296" customWidth="1"/>
     <col min="2049" max="2049" width="19" customWidth="1"/>
-    <col min="2050" max="2050" width="19.625" customWidth="1"/>
+    <col min="2050" max="2050" width="19.6296296296296" customWidth="1"/>
     <col min="2051" max="2052" width="26" customWidth="1"/>
     <col min="2053" max="2053" width="15.5" customWidth="1"/>
-    <col min="2054" max="2054" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="16.1296296296296" customWidth="1"/>
     <col min="2056" max="2056" width="16.5" customWidth="1"/>
-    <col min="2057" max="2057" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2057" width="16.1296296296296" customWidth="1"/>
     <col min="2305" max="2305" width="19" customWidth="1"/>
-    <col min="2306" max="2306" width="19.625" customWidth="1"/>
+    <col min="2306" max="2306" width="19.6296296296296" customWidth="1"/>
     <col min="2307" max="2308" width="26" customWidth="1"/>
     <col min="2309" max="2309" width="15.5" customWidth="1"/>
-    <col min="2310" max="2310" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="16.1296296296296" customWidth="1"/>
     <col min="2312" max="2312" width="16.5" customWidth="1"/>
-    <col min="2313" max="2313" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2313" width="16.1296296296296" customWidth="1"/>
     <col min="2561" max="2561" width="19" customWidth="1"/>
-    <col min="2562" max="2562" width="19.625" customWidth="1"/>
+    <col min="2562" max="2562" width="19.6296296296296" customWidth="1"/>
     <col min="2563" max="2564" width="26" customWidth="1"/>
     <col min="2565" max="2565" width="15.5" customWidth="1"/>
-    <col min="2566" max="2566" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="16.1296296296296" customWidth="1"/>
     <col min="2568" max="2568" width="16.5" customWidth="1"/>
-    <col min="2569" max="2569" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2569" width="16.1296296296296" customWidth="1"/>
     <col min="2817" max="2817" width="19" customWidth="1"/>
-    <col min="2818" max="2818" width="19.625" customWidth="1"/>
+    <col min="2818" max="2818" width="19.6296296296296" customWidth="1"/>
     <col min="2819" max="2820" width="26" customWidth="1"/>
     <col min="2821" max="2821" width="15.5" customWidth="1"/>
-    <col min="2822" max="2822" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="16.1296296296296" customWidth="1"/>
     <col min="2824" max="2824" width="16.5" customWidth="1"/>
-    <col min="2825" max="2825" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2825" width="16.1296296296296" customWidth="1"/>
     <col min="3073" max="3073" width="19" customWidth="1"/>
-    <col min="3074" max="3074" width="19.625" customWidth="1"/>
+    <col min="3074" max="3074" width="19.6296296296296" customWidth="1"/>
     <col min="3075" max="3076" width="26" customWidth="1"/>
     <col min="3077" max="3077" width="15.5" customWidth="1"/>
-    <col min="3078" max="3078" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="16.1296296296296" customWidth="1"/>
     <col min="3080" max="3080" width="16.5" customWidth="1"/>
-    <col min="3081" max="3081" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3081" width="16.1296296296296" customWidth="1"/>
     <col min="3329" max="3329" width="19" customWidth="1"/>
-    <col min="3330" max="3330" width="19.625" customWidth="1"/>
+    <col min="3330" max="3330" width="19.6296296296296" customWidth="1"/>
     <col min="3331" max="3332" width="26" customWidth="1"/>
     <col min="3333" max="3333" width="15.5" customWidth="1"/>
-    <col min="3334" max="3334" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="16.1296296296296" customWidth="1"/>
     <col min="3336" max="3336" width="16.5" customWidth="1"/>
-    <col min="3337" max="3337" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3337" width="16.1296296296296" customWidth="1"/>
     <col min="3585" max="3585" width="19" customWidth="1"/>
-    <col min="3586" max="3586" width="19.625" customWidth="1"/>
+    <col min="3586" max="3586" width="19.6296296296296" customWidth="1"/>
     <col min="3587" max="3588" width="26" customWidth="1"/>
     <col min="3589" max="3589" width="15.5" customWidth="1"/>
-    <col min="3590" max="3590" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="16.1296296296296" customWidth="1"/>
     <col min="3592" max="3592" width="16.5" customWidth="1"/>
-    <col min="3593" max="3593" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3593" width="16.1296296296296" customWidth="1"/>
     <col min="3841" max="3841" width="19" customWidth="1"/>
-    <col min="3842" max="3842" width="19.625" customWidth="1"/>
+    <col min="3842" max="3842" width="19.6296296296296" customWidth="1"/>
     <col min="3843" max="3844" width="26" customWidth="1"/>
     <col min="3845" max="3845" width="15.5" customWidth="1"/>
-    <col min="3846" max="3846" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="16.1296296296296" customWidth="1"/>
     <col min="3848" max="3848" width="16.5" customWidth="1"/>
-    <col min="3849" max="3849" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3849" width="16.1296296296296" customWidth="1"/>
     <col min="4097" max="4097" width="19" customWidth="1"/>
-    <col min="4098" max="4098" width="19.625" customWidth="1"/>
+    <col min="4098" max="4098" width="19.6296296296296" customWidth="1"/>
     <col min="4099" max="4100" width="26" customWidth="1"/>
     <col min="4101" max="4101" width="15.5" customWidth="1"/>
-    <col min="4102" max="4102" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="16.1296296296296" customWidth="1"/>
     <col min="4104" max="4104" width="16.5" customWidth="1"/>
-    <col min="4105" max="4105" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4105" width="16.1296296296296" customWidth="1"/>
     <col min="4353" max="4353" width="19" customWidth="1"/>
-    <col min="4354" max="4354" width="19.625" customWidth="1"/>
+    <col min="4354" max="4354" width="19.6296296296296" customWidth="1"/>
     <col min="4355" max="4356" width="26" customWidth="1"/>
     <col min="4357" max="4357" width="15.5" customWidth="1"/>
-    <col min="4358" max="4358" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="16.1296296296296" customWidth="1"/>
     <col min="4360" max="4360" width="16.5" customWidth="1"/>
-    <col min="4361" max="4361" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4361" width="16.1296296296296" customWidth="1"/>
     <col min="4609" max="4609" width="19" customWidth="1"/>
-    <col min="4610" max="4610" width="19.625" customWidth="1"/>
+    <col min="4610" max="4610" width="19.6296296296296" customWidth="1"/>
     <col min="4611" max="4612" width="26" customWidth="1"/>
     <col min="4613" max="4613" width="15.5" customWidth="1"/>
-    <col min="4614" max="4614" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="16.1296296296296" customWidth="1"/>
     <col min="4616" max="4616" width="16.5" customWidth="1"/>
-    <col min="4617" max="4617" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4617" width="16.1296296296296" customWidth="1"/>
     <col min="4865" max="4865" width="19" customWidth="1"/>
-    <col min="4866" max="4866" width="19.625" customWidth="1"/>
+    <col min="4866" max="4866" width="19.6296296296296" customWidth="1"/>
     <col min="4867" max="4868" width="26" customWidth="1"/>
     <col min="4869" max="4869" width="15.5" customWidth="1"/>
-    <col min="4870" max="4870" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="16.1296296296296" customWidth="1"/>
     <col min="4872" max="4872" width="16.5" customWidth="1"/>
-    <col min="4873" max="4873" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4873" width="16.1296296296296" customWidth="1"/>
     <col min="5121" max="5121" width="19" customWidth="1"/>
-    <col min="5122" max="5122" width="19.625" customWidth="1"/>
+    <col min="5122" max="5122" width="19.6296296296296" customWidth="1"/>
     <col min="5123" max="5124" width="26" customWidth="1"/>
     <col min="5125" max="5125" width="15.5" customWidth="1"/>
-    <col min="5126" max="5126" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="16.1296296296296" customWidth="1"/>
     <col min="5128" max="5128" width="16.5" customWidth="1"/>
-    <col min="5129" max="5129" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5129" width="16.1296296296296" customWidth="1"/>
     <col min="5377" max="5377" width="19" customWidth="1"/>
-    <col min="5378" max="5378" width="19.625" customWidth="1"/>
+    <col min="5378" max="5378" width="19.6296296296296" customWidth="1"/>
     <col min="5379" max="5380" width="26" customWidth="1"/>
     <col min="5381" max="5381" width="15.5" customWidth="1"/>
-    <col min="5382" max="5382" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="16.1296296296296" customWidth="1"/>
     <col min="5384" max="5384" width="16.5" customWidth="1"/>
-    <col min="5385" max="5385" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5385" width="16.1296296296296" customWidth="1"/>
     <col min="5633" max="5633" width="19" customWidth="1"/>
-    <col min="5634" max="5634" width="19.625" customWidth="1"/>
+    <col min="5634" max="5634" width="19.6296296296296" customWidth="1"/>
     <col min="5635" max="5636" width="26" customWidth="1"/>
     <col min="5637" max="5637" width="15.5" customWidth="1"/>
-    <col min="5638" max="5638" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="16.1296296296296" customWidth="1"/>
     <col min="5640" max="5640" width="16.5" customWidth="1"/>
-    <col min="5641" max="5641" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5641" width="16.1296296296296" customWidth="1"/>
     <col min="5889" max="5889" width="19" customWidth="1"/>
-    <col min="5890" max="5890" width="19.625" customWidth="1"/>
+    <col min="5890" max="5890" width="19.6296296296296" customWidth="1"/>
     <col min="5891" max="5892" width="26" customWidth="1"/>
     <col min="5893" max="5893" width="15.5" customWidth="1"/>
-    <col min="5894" max="5894" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="16.1296296296296" customWidth="1"/>
     <col min="5896" max="5896" width="16.5" customWidth="1"/>
-    <col min="5897" max="5897" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5897" width="16.1296296296296" customWidth="1"/>
     <col min="6145" max="6145" width="19" customWidth="1"/>
-    <col min="6146" max="6146" width="19.625" customWidth="1"/>
+    <col min="6146" max="6146" width="19.6296296296296" customWidth="1"/>
     <col min="6147" max="6148" width="26" customWidth="1"/>
     <col min="6149" max="6149" width="15.5" customWidth="1"/>
-    <col min="6150" max="6150" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="16.1296296296296" customWidth="1"/>
     <col min="6152" max="6152" width="16.5" customWidth="1"/>
-    <col min="6153" max="6153" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6153" width="16.1296296296296" customWidth="1"/>
     <col min="6401" max="6401" width="19" customWidth="1"/>
-    <col min="6402" max="6402" width="19.625" customWidth="1"/>
+    <col min="6402" max="6402" width="19.6296296296296" customWidth="1"/>
     <col min="6403" max="6404" width="26" customWidth="1"/>
     <col min="6405" max="6405" width="15.5" customWidth="1"/>
-    <col min="6406" max="6406" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="16.1296296296296" customWidth="1"/>
     <col min="6408" max="6408" width="16.5" customWidth="1"/>
-    <col min="6409" max="6409" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6409" width="16.1296296296296" customWidth="1"/>
     <col min="6657" max="6657" width="19" customWidth="1"/>
-    <col min="6658" max="6658" width="19.625" customWidth="1"/>
+    <col min="6658" max="6658" width="19.6296296296296" customWidth="1"/>
     <col min="6659" max="6660" width="26" customWidth="1"/>
     <col min="6661" max="6661" width="15.5" customWidth="1"/>
-    <col min="6662" max="6662" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="16.1296296296296" customWidth="1"/>
     <col min="6664" max="6664" width="16.5" customWidth="1"/>
-    <col min="6665" max="6665" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6665" width="16.1296296296296" customWidth="1"/>
     <col min="6913" max="6913" width="19" customWidth="1"/>
-    <col min="6914" max="6914" width="19.625" customWidth="1"/>
+    <col min="6914" max="6914" width="19.6296296296296" customWidth="1"/>
     <col min="6915" max="6916" width="26" customWidth="1"/>
     <col min="6917" max="6917" width="15.5" customWidth="1"/>
-    <col min="6918" max="6918" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="16.1296296296296" customWidth="1"/>
     <col min="6920" max="6920" width="16.5" customWidth="1"/>
-    <col min="6921" max="6921" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6921" width="16.1296296296296" customWidth="1"/>
     <col min="7169" max="7169" width="19" customWidth="1"/>
-    <col min="7170" max="7170" width="19.625" customWidth="1"/>
+    <col min="7170" max="7170" width="19.6296296296296" customWidth="1"/>
     <col min="7171" max="7172" width="26" customWidth="1"/>
     <col min="7173" max="7173" width="15.5" customWidth="1"/>
-    <col min="7174" max="7174" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="16.1296296296296" customWidth="1"/>
     <col min="7176" max="7176" width="16.5" customWidth="1"/>
-    <col min="7177" max="7177" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7177" width="16.1296296296296" customWidth="1"/>
     <col min="7425" max="7425" width="19" customWidth="1"/>
-    <col min="7426" max="7426" width="19.625" customWidth="1"/>
+    <col min="7426" max="7426" width="19.6296296296296" customWidth="1"/>
     <col min="7427" max="7428" width="26" customWidth="1"/>
     <col min="7429" max="7429" width="15.5" customWidth="1"/>
-    <col min="7430" max="7430" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="16.1296296296296" customWidth="1"/>
     <col min="7432" max="7432" width="16.5" customWidth="1"/>
-    <col min="7433" max="7433" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7433" width="16.1296296296296" customWidth="1"/>
     <col min="7681" max="7681" width="19" customWidth="1"/>
-    <col min="7682" max="7682" width="19.625" customWidth="1"/>
+    <col min="7682" max="7682" width="19.6296296296296" customWidth="1"/>
     <col min="7683" max="7684" width="26" customWidth="1"/>
     <col min="7685" max="7685" width="15.5" customWidth="1"/>
-    <col min="7686" max="7686" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="16.1296296296296" customWidth="1"/>
     <col min="7688" max="7688" width="16.5" customWidth="1"/>
-    <col min="7689" max="7689" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7689" width="16.1296296296296" customWidth="1"/>
     <col min="7937" max="7937" width="19" customWidth="1"/>
-    <col min="7938" max="7938" width="19.625" customWidth="1"/>
+    <col min="7938" max="7938" width="19.6296296296296" customWidth="1"/>
     <col min="7939" max="7940" width="26" customWidth="1"/>
     <col min="7941" max="7941" width="15.5" customWidth="1"/>
-    <col min="7942" max="7942" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="16.1296296296296" customWidth="1"/>
     <col min="7944" max="7944" width="16.5" customWidth="1"/>
-    <col min="7945" max="7945" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7945" width="16.1296296296296" customWidth="1"/>
     <col min="8193" max="8193" width="19" customWidth="1"/>
-    <col min="8194" max="8194" width="19.625" customWidth="1"/>
+    <col min="8194" max="8194" width="19.6296296296296" customWidth="1"/>
     <col min="8195" max="8196" width="26" customWidth="1"/>
     <col min="8197" max="8197" width="15.5" customWidth="1"/>
-    <col min="8198" max="8198" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="16.1296296296296" customWidth="1"/>
     <col min="8200" max="8200" width="16.5" customWidth="1"/>
-    <col min="8201" max="8201" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8201" width="16.1296296296296" customWidth="1"/>
     <col min="8449" max="8449" width="19" customWidth="1"/>
-    <col min="8450" max="8450" width="19.625" customWidth="1"/>
+    <col min="8450" max="8450" width="19.6296296296296" customWidth="1"/>
     <col min="8451" max="8452" width="26" customWidth="1"/>
     <col min="8453" max="8453" width="15.5" customWidth="1"/>
-    <col min="8454" max="8454" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="16.1296296296296" customWidth="1"/>
     <col min="8456" max="8456" width="16.5" customWidth="1"/>
-    <col min="8457" max="8457" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8457" width="16.1296296296296" customWidth="1"/>
     <col min="8705" max="8705" width="19" customWidth="1"/>
-    <col min="8706" max="8706" width="19.625" customWidth="1"/>
+    <col min="8706" max="8706" width="19.6296296296296" customWidth="1"/>
     <col min="8707" max="8708" width="26" customWidth="1"/>
     <col min="8709" max="8709" width="15.5" customWidth="1"/>
-    <col min="8710" max="8710" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="16.1296296296296" customWidth="1"/>
     <col min="8712" max="8712" width="16.5" customWidth="1"/>
-    <col min="8713" max="8713" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8713" width="16.1296296296296" customWidth="1"/>
     <col min="8961" max="8961" width="19" customWidth="1"/>
-    <col min="8962" max="8962" width="19.625" customWidth="1"/>
+    <col min="8962" max="8962" width="19.6296296296296" customWidth="1"/>
     <col min="8963" max="8964" width="26" customWidth="1"/>
     <col min="8965" max="8965" width="15.5" customWidth="1"/>
-    <col min="8966" max="8966" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="16.1296296296296" customWidth="1"/>
     <col min="8968" max="8968" width="16.5" customWidth="1"/>
-    <col min="8969" max="8969" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8969" width="16.1296296296296" customWidth="1"/>
     <col min="9217" max="9217" width="19" customWidth="1"/>
-    <col min="9218" max="9218" width="19.625" customWidth="1"/>
+    <col min="9218" max="9218" width="19.6296296296296" customWidth="1"/>
     <col min="9219" max="9220" width="26" customWidth="1"/>
     <col min="9221" max="9221" width="15.5" customWidth="1"/>
-    <col min="9222" max="9222" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="16.1296296296296" customWidth="1"/>
     <col min="9224" max="9224" width="16.5" customWidth="1"/>
-    <col min="9225" max="9225" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9225" width="16.1296296296296" customWidth="1"/>
     <col min="9473" max="9473" width="19" customWidth="1"/>
-    <col min="9474" max="9474" width="19.625" customWidth="1"/>
+    <col min="9474" max="9474" width="19.6296296296296" customWidth="1"/>
     <col min="9475" max="9476" width="26" customWidth="1"/>
     <col min="9477" max="9477" width="15.5" customWidth="1"/>
-    <col min="9478" max="9478" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="16.1296296296296" customWidth="1"/>
     <col min="9480" max="9480" width="16.5" customWidth="1"/>
-    <col min="9481" max="9481" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9481" width="16.1296296296296" customWidth="1"/>
     <col min="9729" max="9729" width="19" customWidth="1"/>
-    <col min="9730" max="9730" width="19.625" customWidth="1"/>
+    <col min="9730" max="9730" width="19.6296296296296" customWidth="1"/>
     <col min="9731" max="9732" width="26" customWidth="1"/>
     <col min="9733" max="9733" width="15.5" customWidth="1"/>
-    <col min="9734" max="9734" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="16.1296296296296" customWidth="1"/>
     <col min="9736" max="9736" width="16.5" customWidth="1"/>
-    <col min="9737" max="9737" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9737" width="16.1296296296296" customWidth="1"/>
     <col min="9985" max="9985" width="19" customWidth="1"/>
-    <col min="9986" max="9986" width="19.625" customWidth="1"/>
+    <col min="9986" max="9986" width="19.6296296296296" customWidth="1"/>
     <col min="9987" max="9988" width="26" customWidth="1"/>
     <col min="9989" max="9989" width="15.5" customWidth="1"/>
-    <col min="9990" max="9990" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="16.1296296296296" customWidth="1"/>
     <col min="9992" max="9992" width="16.5" customWidth="1"/>
-    <col min="9993" max="9993" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9993" width="16.1296296296296" customWidth="1"/>
     <col min="10241" max="10241" width="19" customWidth="1"/>
-    <col min="10242" max="10242" width="19.625" customWidth="1"/>
+    <col min="10242" max="10242" width="19.6296296296296" customWidth="1"/>
     <col min="10243" max="10244" width="26" customWidth="1"/>
     <col min="10245" max="10245" width="15.5" customWidth="1"/>
-    <col min="10246" max="10246" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="16.1296296296296" customWidth="1"/>
     <col min="10248" max="10248" width="16.5" customWidth="1"/>
-    <col min="10249" max="10249" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10249" width="16.1296296296296" customWidth="1"/>
     <col min="10497" max="10497" width="19" customWidth="1"/>
-    <col min="10498" max="10498" width="19.625" customWidth="1"/>
+    <col min="10498" max="10498" width="19.6296296296296" customWidth="1"/>
     <col min="10499" max="10500" width="26" customWidth="1"/>
     <col min="10501" max="10501" width="15.5" customWidth="1"/>
-    <col min="10502" max="10502" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="16.1296296296296" customWidth="1"/>
     <col min="10504" max="10504" width="16.5" customWidth="1"/>
-    <col min="10505" max="10505" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10505" width="16.1296296296296" customWidth="1"/>
     <col min="10753" max="10753" width="19" customWidth="1"/>
-    <col min="10754" max="10754" width="19.625" customWidth="1"/>
+    <col min="10754" max="10754" width="19.6296296296296" customWidth="1"/>
     <col min="10755" max="10756" width="26" customWidth="1"/>
     <col min="10757" max="10757" width="15.5" customWidth="1"/>
-    <col min="10758" max="10758" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="16.1296296296296" customWidth="1"/>
     <col min="10760" max="10760" width="16.5" customWidth="1"/>
-    <col min="10761" max="10761" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10761" width="16.1296296296296" customWidth="1"/>
     <col min="11009" max="11009" width="19" customWidth="1"/>
-    <col min="11010" max="11010" width="19.625" customWidth="1"/>
+    <col min="11010" max="11010" width="19.6296296296296" customWidth="1"/>
     <col min="11011" max="11012" width="26" customWidth="1"/>
     <col min="11013" max="11013" width="15.5" customWidth="1"/>
-    <col min="11014" max="11014" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="16.1296296296296" customWidth="1"/>
     <col min="11016" max="11016" width="16.5" customWidth="1"/>
-    <col min="11017" max="11017" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11017" width="16.1296296296296" customWidth="1"/>
     <col min="11265" max="11265" width="19" customWidth="1"/>
-    <col min="11266" max="11266" width="19.625" customWidth="1"/>
+    <col min="11266" max="11266" width="19.6296296296296" customWidth="1"/>
     <col min="11267" max="11268" width="26" customWidth="1"/>
     <col min="11269" max="11269" width="15.5" customWidth="1"/>
-    <col min="11270" max="11270" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="16.1296296296296" customWidth="1"/>
     <col min="11272" max="11272" width="16.5" customWidth="1"/>
-    <col min="11273" max="11273" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11273" width="16.1296296296296" customWidth="1"/>
     <col min="11521" max="11521" width="19" customWidth="1"/>
-    <col min="11522" max="11522" width="19.625" customWidth="1"/>
+    <col min="11522" max="11522" width="19.6296296296296" customWidth="1"/>
     <col min="11523" max="11524" width="26" customWidth="1"/>
     <col min="11525" max="11525" width="15.5" customWidth="1"/>
-    <col min="11526" max="11526" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="16.1296296296296" customWidth="1"/>
     <col min="11528" max="11528" width="16.5" customWidth="1"/>
-    <col min="11529" max="11529" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11529" width="16.1296296296296" customWidth="1"/>
     <col min="11777" max="11777" width="19" customWidth="1"/>
-    <col min="11778" max="11778" width="19.625" customWidth="1"/>
+    <col min="11778" max="11778" width="19.6296296296296" customWidth="1"/>
     <col min="11779" max="11780" width="26" customWidth="1"/>
     <col min="11781" max="11781" width="15.5" customWidth="1"/>
-    <col min="11782" max="11782" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="16.1296296296296" customWidth="1"/>
     <col min="11784" max="11784" width="16.5" customWidth="1"/>
-    <col min="11785" max="11785" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11785" width="16.1296296296296" customWidth="1"/>
     <col min="12033" max="12033" width="19" customWidth="1"/>
-    <col min="12034" max="12034" width="19.625" customWidth="1"/>
+    <col min="12034" max="12034" width="19.6296296296296" customWidth="1"/>
     <col min="12035" max="12036" width="26" customWidth="1"/>
     <col min="12037" max="12037" width="15.5" customWidth="1"/>
-    <col min="12038" max="12038" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="16.1296296296296" customWidth="1"/>
     <col min="12040" max="12040" width="16.5" customWidth="1"/>
-    <col min="12041" max="12041" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12041" width="16.1296296296296" customWidth="1"/>
     <col min="12289" max="12289" width="19" customWidth="1"/>
-    <col min="12290" max="12290" width="19.625" customWidth="1"/>
+    <col min="12290" max="12290" width="19.6296296296296" customWidth="1"/>
     <col min="12291" max="12292" width="26" customWidth="1"/>
     <col min="12293" max="12293" width="15.5" customWidth="1"/>
-    <col min="12294" max="12294" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="16.1296296296296" customWidth="1"/>
     <col min="12296" max="12296" width="16.5" customWidth="1"/>
-    <col min="12297" max="12297" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12297" width="16.1296296296296" customWidth="1"/>
     <col min="12545" max="12545" width="19" customWidth="1"/>
-    <col min="12546" max="12546" width="19.625" customWidth="1"/>
+    <col min="12546" max="12546" width="19.6296296296296" customWidth="1"/>
     <col min="12547" max="12548" width="26" customWidth="1"/>
     <col min="12549" max="12549" width="15.5" customWidth="1"/>
-    <col min="12550" max="12550" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="16.1296296296296" customWidth="1"/>
     <col min="12552" max="12552" width="16.5" customWidth="1"/>
-    <col min="12553" max="12553" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12553" width="16.1296296296296" customWidth="1"/>
     <col min="12801" max="12801" width="19" customWidth="1"/>
-    <col min="12802" max="12802" width="19.625" customWidth="1"/>
+    <col min="12802" max="12802" width="19.6296296296296" customWidth="1"/>
     <col min="12803" max="12804" width="26" customWidth="1"/>
     <col min="12805" max="12805" width="15.5" customWidth="1"/>
-    <col min="12806" max="12806" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="16.1296296296296" customWidth="1"/>
     <col min="12808" max="12808" width="16.5" customWidth="1"/>
-    <col min="12809" max="12809" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12809" width="16.1296296296296" customWidth="1"/>
     <col min="13057" max="13057" width="19" customWidth="1"/>
-    <col min="13058" max="13058" width="19.625" customWidth="1"/>
+    <col min="13058" max="13058" width="19.6296296296296" customWidth="1"/>
     <col min="13059" max="13060" width="26" customWidth="1"/>
     <col min="13061" max="13061" width="15.5" customWidth="1"/>
-    <col min="13062" max="13062" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="16.1296296296296" customWidth="1"/>
     <col min="13064" max="13064" width="16.5" customWidth="1"/>
-    <col min="13065" max="13065" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13065" width="16.1296296296296" customWidth="1"/>
     <col min="13313" max="13313" width="19" customWidth="1"/>
-    <col min="13314" max="13314" width="19.625" customWidth="1"/>
+    <col min="13314" max="13314" width="19.6296296296296" customWidth="1"/>
     <col min="13315" max="13316" width="26" customWidth="1"/>
     <col min="13317" max="13317" width="15.5" customWidth="1"/>
-    <col min="13318" max="13318" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="16.1296296296296" customWidth="1"/>
     <col min="13320" max="13320" width="16.5" customWidth="1"/>
-    <col min="13321" max="13321" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13321" width="16.1296296296296" customWidth="1"/>
     <col min="13569" max="13569" width="19" customWidth="1"/>
-    <col min="13570" max="13570" width="19.625" customWidth="1"/>
+    <col min="13570" max="13570" width="19.6296296296296" customWidth="1"/>
     <col min="13571" max="13572" width="26" customWidth="1"/>
     <col min="13573" max="13573" width="15.5" customWidth="1"/>
-    <col min="13574" max="13574" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="16.1296296296296" customWidth="1"/>
     <col min="13576" max="13576" width="16.5" customWidth="1"/>
-    <col min="13577" max="13577" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13577" width="16.1296296296296" customWidth="1"/>
     <col min="13825" max="13825" width="19" customWidth="1"/>
-    <col min="13826" max="13826" width="19.625" customWidth="1"/>
+    <col min="13826" max="13826" width="19.6296296296296" customWidth="1"/>
     <col min="13827" max="13828" width="26" customWidth="1"/>
     <col min="13829" max="13829" width="15.5" customWidth="1"/>
-    <col min="13830" max="13830" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="16.1296296296296" customWidth="1"/>
     <col min="13832" max="13832" width="16.5" customWidth="1"/>
-    <col min="13833" max="13833" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13833" width="16.1296296296296" customWidth="1"/>
     <col min="14081" max="14081" width="19" customWidth="1"/>
-    <col min="14082" max="14082" width="19.625" customWidth="1"/>
+    <col min="14082" max="14082" width="19.6296296296296" customWidth="1"/>
     <col min="14083" max="14084" width="26" customWidth="1"/>
     <col min="14085" max="14085" width="15.5" customWidth="1"/>
-    <col min="14086" max="14086" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="16.1296296296296" customWidth="1"/>
     <col min="14088" max="14088" width="16.5" customWidth="1"/>
-    <col min="14089" max="14089" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14089" width="16.1296296296296" customWidth="1"/>
     <col min="14337" max="14337" width="19" customWidth="1"/>
-    <col min="14338" max="14338" width="19.625" customWidth="1"/>
+    <col min="14338" max="14338" width="19.6296296296296" customWidth="1"/>
     <col min="14339" max="14340" width="26" customWidth="1"/>
     <col min="14341" max="14341" width="15.5" customWidth="1"/>
-    <col min="14342" max="14342" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="16.1296296296296" customWidth="1"/>
     <col min="14344" max="14344" width="16.5" customWidth="1"/>
-    <col min="14345" max="14345" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14345" width="16.1296296296296" customWidth="1"/>
     <col min="14593" max="14593" width="19" customWidth="1"/>
-    <col min="14594" max="14594" width="19.625" customWidth="1"/>
+    <col min="14594" max="14594" width="19.6296296296296" customWidth="1"/>
     <col min="14595" max="14596" width="26" customWidth="1"/>
     <col min="14597" max="14597" width="15.5" customWidth="1"/>
-    <col min="14598" max="14598" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="16.1296296296296" customWidth="1"/>
     <col min="14600" max="14600" width="16.5" customWidth="1"/>
-    <col min="14601" max="14601" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14601" width="16.1296296296296" customWidth="1"/>
     <col min="14849" max="14849" width="19" customWidth="1"/>
-    <col min="14850" max="14850" width="19.625" customWidth="1"/>
+    <col min="14850" max="14850" width="19.6296296296296" customWidth="1"/>
     <col min="14851" max="14852" width="26" customWidth="1"/>
     <col min="14853" max="14853" width="15.5" customWidth="1"/>
-    <col min="14854" max="14854" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="16.1296296296296" customWidth="1"/>
     <col min="14856" max="14856" width="16.5" customWidth="1"/>
-    <col min="14857" max="14857" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14857" width="16.1296296296296" customWidth="1"/>
     <col min="15105" max="15105" width="19" customWidth="1"/>
-    <col min="15106" max="15106" width="19.625" customWidth="1"/>
+    <col min="15106" max="15106" width="19.6296296296296" customWidth="1"/>
     <col min="15107" max="15108" width="26" customWidth="1"/>
     <col min="15109" max="15109" width="15.5" customWidth="1"/>
-    <col min="15110" max="15110" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="16.1296296296296" customWidth="1"/>
     <col min="15112" max="15112" width="16.5" customWidth="1"/>
-    <col min="15113" max="15113" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15113" width="16.1296296296296" customWidth="1"/>
     <col min="15361" max="15361" width="19" customWidth="1"/>
-    <col min="15362" max="15362" width="19.625" customWidth="1"/>
+    <col min="15362" max="15362" width="19.6296296296296" customWidth="1"/>
     <col min="15363" max="15364" width="26" customWidth="1"/>
     <col min="15365" max="15365" width="15.5" customWidth="1"/>
-    <col min="15366" max="15366" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="16.1296296296296" customWidth="1"/>
     <col min="15368" max="15368" width="16.5" customWidth="1"/>
-    <col min="15369" max="15369" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15369" width="16.1296296296296" customWidth="1"/>
     <col min="15617" max="15617" width="19" customWidth="1"/>
-    <col min="15618" max="15618" width="19.625" customWidth="1"/>
+    <col min="15618" max="15618" width="19.6296296296296" customWidth="1"/>
     <col min="15619" max="15620" width="26" customWidth="1"/>
     <col min="15621" max="15621" width="15.5" customWidth="1"/>
-    <col min="15622" max="15622" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="16.1296296296296" customWidth="1"/>
     <col min="15624" max="15624" width="16.5" customWidth="1"/>
-    <col min="15625" max="15625" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15625" width="16.1296296296296" customWidth="1"/>
     <col min="15873" max="15873" width="19" customWidth="1"/>
-    <col min="15874" max="15874" width="19.625" customWidth="1"/>
+    <col min="15874" max="15874" width="19.6296296296296" customWidth="1"/>
     <col min="15875" max="15876" width="26" customWidth="1"/>
     <col min="15877" max="15877" width="15.5" customWidth="1"/>
-    <col min="15878" max="15878" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="16.1296296296296" customWidth="1"/>
     <col min="15880" max="15880" width="16.5" customWidth="1"/>
-    <col min="15881" max="15881" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15881" width="16.1296296296296" customWidth="1"/>
     <col min="16129" max="16129" width="19" customWidth="1"/>
-    <col min="16130" max="16130" width="19.625" customWidth="1"/>
+    <col min="16130" max="16130" width="19.6296296296296" customWidth="1"/>
     <col min="16131" max="16132" width="26" customWidth="1"/>
     <col min="16133" max="16133" width="15.5" customWidth="1"/>
-    <col min="16134" max="16134" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="16.1296296296296" customWidth="1"/>
     <col min="16136" max="16136" width="16.5" customWidth="1"/>
-    <col min="16137" max="16137" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16137" width="16.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1109,167 +1711,167 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="1" customFormat="1" ht="16.8" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="5"/>
+      <c r="F2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    <row r="3" s="2" customFormat="1" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>42</v>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="F3" s="10">
         <v>111111</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="I7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="11" spans="5:9">
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="5:9">
+      <c r="E12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="3" t="s">
+      <c r="I12" t="s">
         <v>37</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D8" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="E11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="E12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2" display="g01@800jit.com"/>
+    <hyperlink ref="E2" r:id="rId1" display="w01@800jit.com"/>
+    <hyperlink ref="E3" r:id="rId2" display="m2-自动化"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>